--- a/release/DH-Bewertungsbogen-Template.xlsx
+++ b/release/DH-Bewertungsbogen-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beier\Downloads\Studienarbeit\release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8ABD51-3767-462F-A38C-0E9DF3CF42B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37D3A2-4A86-4959-AD36-FD18A9D0D48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="21690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,9 +401,6 @@
     <t xml:space="preserve">Unterschrift Betreuer: </t>
   </si>
   <si>
-    <t>TINF21B5 / 5. Semester</t>
-  </si>
-  <si>
     <t>CO2-Runter-App: Eine Studie zur Anpassung und Erweiterung basierend auf Nutzerbedürfnissen</t>
   </si>
   <si>
@@ -411,6 +408,9 @@
   </si>
   <si>
     <t>Dr. Oliver Rettig</t>
+  </si>
+  <si>
+    <t>TINF21B4; TINF21B5 / 5. - 6. Semester</t>
   </si>
 </sst>
 </file>
@@ -1523,17 +1523,96 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1545,7 +1624,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1561,84 +1639,6 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3760,8 +3760,8 @@
   </sheetPr>
   <dimension ref="A1:N1389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3777,21 +3777,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="11" customFormat="1" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="136"/>
-      <c r="B1" s="137"/>
+      <c r="A1" s="154"/>
+      <c r="B1" s="155"/>
       <c r="F1" s="77" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="78"/>
-      <c r="H1" s="143" t="s">
+      <c r="H1" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="143"/>
+      <c r="I1" s="153"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:13" s="11" customFormat="1" ht="20.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="136"/>
-      <c r="B2" s="137"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
       <c r="D2" s="100"/>
       <c r="F2" s="78"/>
       <c r="G2" s="78"/>
@@ -3842,15 +3842,15 @@
         <v>5</v>
       </c>
       <c r="B7" s="83"/>
-      <c r="C7" s="141" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
+      <c r="C7" s="168" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="169"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="169"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:13" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,15 +3858,15 @@
         <v>6</v>
       </c>
       <c r="B8" s="83"/>
-      <c r="C8" s="144" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
+      <c r="C8" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3874,15 +3874,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="83"/>
-      <c r="C9" s="138" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
+      <c r="C9" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -3890,15 +3890,15 @@
         <v>8</v>
       </c>
       <c r="B10" s="83"/>
-      <c r="C10" s="146" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
+      <c r="C10" s="172" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="173"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:13" s="11" customFormat="1" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3951,10 +3951,10 @@
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="140"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>
       <c r="I13" s="53"/>
@@ -4178,10 +4178,10 @@
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
-      <c r="E20" s="139" t="s">
+      <c r="E20" s="158" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="139"/>
+      <c r="F20" s="158"/>
       <c r="G20" s="51"/>
       <c r="H20" s="69"/>
       <c r="I20" s="70"/>
@@ -4388,12 +4388,12 @@
     </row>
     <row r="27" spans="1:14" s="11" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27"/>
-      <c r="B27" s="150" t="s">
+      <c r="B27" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
       <c r="F27" s="42" t="s">
         <v>92</v>
       </c>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="28" spans="1:14" s="11" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="154" t="s">
+      <c r="B28" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="31"/>
       <c r="H28" s="39"/>
       <c r="I28" s="44">
@@ -4432,10 +4432,10 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:14" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="163"/>
       <c r="C29" s="101"/>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
@@ -4467,15 +4467,15 @@
     </row>
     <row r="31" spans="1:14" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
-      <c r="B31" s="149" t="s">
+      <c r="B31" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
+      <c r="G31" s="159"/>
+      <c r="H31" s="159"/>
       <c r="I31" s="33"/>
       <c r="J31" s="8"/>
       <c r="K31" s="4"/>
@@ -4485,15 +4485,15 @@
     </row>
     <row r="32" spans="1:14" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
       <c r="I32" s="33"/>
       <c r="J32" s="9"/>
       <c r="K32" s="4"/>
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="78"/>
-      <c r="H37" s="143" t="s">
+      <c r="H37" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="I37" s="143"/>
+      <c r="I37" s="153"/>
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:14" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.4">
@@ -4600,16 +4600,16 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="136"/>
-      <c r="B40" s="137"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="155"/>
       <c r="C40" s="41"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="136"/>
-      <c r="B41" s="137"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="155"/>
       <c r="I41" s="13" t="s">
         <v>100</v>
       </c>
@@ -4638,32 +4638,32 @@
         <v>6</v>
       </c>
       <c r="B44" s="83"/>
-      <c r="C44" s="148" t="str">
+      <c r="C44" s="157" t="str">
         <f>$C$8</f>
         <v>Julian Stadler, Kevin Beier</v>
       </c>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
     </row>
     <row r="45" spans="1:14" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="82" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="83"/>
-      <c r="C45" s="157" t="str">
+      <c r="C45" s="156" t="str">
         <f>$C$9</f>
         <v>CO2-Runter-App: Eine Studie zur Anpassung und Erweiterung basierend auf Nutzerbedürfnissen</v>
       </c>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
       <c r="J45" s="7"/>
     </row>
     <row r="46" spans="1:14" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,16 +4671,16 @@
         <v>8</v>
       </c>
       <c r="B46" s="83"/>
-      <c r="C46" s="155" t="str">
+      <c r="C46" s="142" t="str">
         <f>$C$10</f>
         <v>Dr. Oliver Rettig</v>
       </c>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="155"/>
-      <c r="G46" s="155"/>
-      <c r="H46" s="155"/>
-      <c r="I46" s="155"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:14" s="6" customFormat="1" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4699,16 +4699,16 @@
       <c r="A48" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
-      <c r="E48" s="165"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="165"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="165"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
       <c r="J48" s="9"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -4716,7 +4716,7 @@
       <c r="N48" s="2"/>
     </row>
     <row r="49" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="172" t="s">
+      <c r="A49" s="138" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="124"/>
@@ -4734,7 +4734,7 @@
       <c r="N49" s="2"/>
     </row>
     <row r="50" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="167"/>
+      <c r="A50" s="139"/>
       <c r="B50" s="126"/>
       <c r="C50" s="125"/>
       <c r="D50" s="125"/>
@@ -4750,7 +4750,7 @@
       <c r="N50" s="2"/>
     </row>
     <row r="51" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="167"/>
+      <c r="A51" s="139"/>
       <c r="B51" s="126"/>
       <c r="C51" s="125"/>
       <c r="D51" s="125"/>
@@ -4766,7 +4766,7 @@
       <c r="N51" s="2"/>
     </row>
     <row r="52" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="167"/>
+      <c r="A52" s="139"/>
       <c r="B52" s="126"/>
       <c r="C52" s="125"/>
       <c r="D52" s="125"/>
@@ -4782,7 +4782,7 @@
       <c r="N52" s="2"/>
     </row>
     <row r="53" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="167"/>
+      <c r="A53" s="139"/>
       <c r="B53" s="126"/>
       <c r="C53" s="125"/>
       <c r="D53" s="125"/>
@@ -4798,7 +4798,7 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="167"/>
+      <c r="A54" s="139"/>
       <c r="B54" s="126"/>
       <c r="C54" s="125"/>
       <c r="D54" s="125"/>
@@ -4814,7 +4814,7 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="167"/>
+      <c r="A55" s="139"/>
       <c r="B55" s="126"/>
       <c r="C55" s="125"/>
       <c r="D55" s="125"/>
@@ -4830,7 +4830,7 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="167"/>
+      <c r="A56" s="139"/>
       <c r="B56" s="126"/>
       <c r="C56" s="125"/>
       <c r="D56" s="125"/>
@@ -4846,7 +4846,7 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="167"/>
+      <c r="A57" s="139"/>
       <c r="B57" s="126"/>
       <c r="C57" s="125"/>
       <c r="D57" s="125"/>
@@ -4862,7 +4862,7 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="167"/>
+      <c r="A58" s="139"/>
       <c r="B58" s="126"/>
       <c r="C58" s="125"/>
       <c r="D58" s="125"/>
@@ -4878,7 +4878,7 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="167"/>
+      <c r="A59" s="139"/>
       <c r="B59" s="126"/>
       <c r="C59" s="125"/>
       <c r="D59" s="125"/>
@@ -4894,7 +4894,7 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="167"/>
+      <c r="A60" s="139"/>
       <c r="B60" s="126"/>
       <c r="C60" s="125"/>
       <c r="D60" s="125"/>
@@ -4910,7 +4910,7 @@
       <c r="N60" s="2"/>
     </row>
     <row r="61" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="167"/>
+      <c r="A61" s="139"/>
       <c r="B61" s="126"/>
       <c r="C61" s="125"/>
       <c r="D61" s="125"/>
@@ -4926,7 +4926,7 @@
       <c r="N61" s="2"/>
     </row>
     <row r="62" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167"/>
+      <c r="A62" s="139"/>
       <c r="B62" s="126"/>
       <c r="C62" s="125"/>
       <c r="D62" s="125"/>
@@ -4942,7 +4942,7 @@
       <c r="N62" s="2"/>
     </row>
     <row r="63" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="167"/>
+      <c r="A63" s="139"/>
       <c r="B63" s="126"/>
       <c r="C63" s="125"/>
       <c r="D63" s="125"/>
@@ -4958,7 +4958,7 @@
       <c r="N63" s="2"/>
     </row>
     <row r="64" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="167"/>
+      <c r="A64" s="139"/>
       <c r="B64" s="126"/>
       <c r="C64" s="125"/>
       <c r="D64" s="125"/>
@@ -4974,7 +4974,7 @@
       <c r="N64" s="2"/>
     </row>
     <row r="65" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="167"/>
+      <c r="A65" s="139"/>
       <c r="B65" s="126"/>
       <c r="C65" s="125"/>
       <c r="D65" s="125"/>
@@ -4990,7 +4990,7 @@
       <c r="N65" s="2"/>
     </row>
     <row r="66" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="167"/>
+      <c r="A66" s="139"/>
       <c r="B66" s="126"/>
       <c r="C66" s="125"/>
       <c r="D66" s="125"/>
@@ -5006,7 +5006,7 @@
       <c r="N66" s="2"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="167"/>
+      <c r="A67" s="139"/>
       <c r="B67" s="126"/>
       <c r="C67" s="125"/>
       <c r="D67" s="125"/>
@@ -5021,7 +5021,7 @@
       <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="167"/>
+      <c r="A68" s="139"/>
       <c r="B68" s="126"/>
       <c r="C68" s="125"/>
       <c r="D68" s="125"/>
@@ -5036,7 +5036,7 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="168"/>
+      <c r="A69" s="140"/>
       <c r="B69" s="126"/>
       <c r="C69" s="125"/>
       <c r="D69" s="125"/>
@@ -5052,7 +5052,7 @@
       <c r="N69" s="2"/>
     </row>
     <row r="70" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="166" t="s">
+      <c r="A70" s="150" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="127"/>
@@ -5070,7 +5070,7 @@
       <c r="N70" s="2"/>
     </row>
     <row r="71" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="167"/>
+      <c r="A71" s="139"/>
       <c r="B71" s="98"/>
       <c r="C71" s="99"/>
       <c r="D71" s="99"/>
@@ -5086,7 +5086,7 @@
       <c r="N71" s="2"/>
     </row>
     <row r="72" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="167"/>
+      <c r="A72" s="139"/>
       <c r="B72" s="98"/>
       <c r="C72" s="99"/>
       <c r="D72" s="99"/>
@@ -5102,7 +5102,7 @@
       <c r="N72" s="2"/>
     </row>
     <row r="73" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="167"/>
+      <c r="A73" s="139"/>
       <c r="B73" s="98"/>
       <c r="C73" s="99"/>
       <c r="D73" s="99"/>
@@ -5118,7 +5118,7 @@
       <c r="N73" s="2"/>
     </row>
     <row r="74" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="167"/>
+      <c r="A74" s="139"/>
       <c r="B74" s="98"/>
       <c r="C74" s="99"/>
       <c r="D74" s="99"/>
@@ -5134,7 +5134,7 @@
       <c r="N74" s="2"/>
     </row>
     <row r="75" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="167"/>
+      <c r="A75" s="139"/>
       <c r="B75" s="98"/>
       <c r="C75" s="99"/>
       <c r="D75" s="99"/>
@@ -5150,7 +5150,7 @@
       <c r="N75" s="2"/>
     </row>
     <row r="76" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="167"/>
+      <c r="A76" s="139"/>
       <c r="B76" s="98"/>
       <c r="C76" s="99"/>
       <c r="D76" s="99"/>
@@ -5166,7 +5166,7 @@
       <c r="N76" s="2"/>
     </row>
     <row r="77" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="167"/>
+      <c r="A77" s="139"/>
       <c r="B77" s="98"/>
       <c r="C77" s="99"/>
       <c r="D77" s="99"/>
@@ -5182,7 +5182,7 @@
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="167"/>
+      <c r="A78" s="139"/>
       <c r="B78" s="98"/>
       <c r="C78" s="99"/>
       <c r="D78" s="99"/>
@@ -5198,7 +5198,7 @@
       <c r="N78" s="2"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="167"/>
+      <c r="A79" s="139"/>
       <c r="B79" s="98"/>
       <c r="C79" s="99"/>
       <c r="D79" s="99"/>
@@ -5213,7 +5213,7 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="167"/>
+      <c r="A80" s="139"/>
       <c r="B80" s="98"/>
       <c r="C80" s="99"/>
       <c r="D80" s="99"/>
@@ -5228,7 +5228,7 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="167"/>
+      <c r="A81" s="139"/>
       <c r="B81" s="98"/>
       <c r="C81" s="99"/>
       <c r="D81" s="99"/>
@@ -5243,7 +5243,7 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="168"/>
+      <c r="A82" s="140"/>
       <c r="B82" s="98"/>
       <c r="C82" s="99"/>
       <c r="D82" s="99"/>
@@ -5258,7 +5258,7 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="160" t="s">
+      <c r="A83" s="141" t="s">
         <v>35</v>
       </c>
       <c r="B83" s="129"/>
@@ -5275,7 +5275,7 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="160"/>
+      <c r="A84" s="141"/>
       <c r="B84" s="98"/>
       <c r="C84" s="99"/>
       <c r="D84" s="99"/>
@@ -5290,7 +5290,7 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="160"/>
+      <c r="A85" s="141"/>
       <c r="B85" s="98"/>
       <c r="C85" s="99"/>
       <c r="D85" s="99"/>
@@ -5302,7 +5302,7 @@
       <c r="J85" s="7"/>
     </row>
     <row r="86" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="160"/>
+      <c r="A86" s="141"/>
       <c r="B86" s="98"/>
       <c r="C86" s="99"/>
       <c r="D86" s="99"/>
@@ -5314,7 +5314,7 @@
       <c r="J86" s="7"/>
     </row>
     <row r="87" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="160"/>
+      <c r="A87" s="141"/>
       <c r="B87" s="98"/>
       <c r="C87" s="99"/>
       <c r="D87" s="99"/>
@@ -5326,7 +5326,7 @@
       <c r="J87" s="7"/>
     </row>
     <row r="88" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="160"/>
+      <c r="A88" s="141"/>
       <c r="B88" s="98"/>
       <c r="C88" s="99"/>
       <c r="D88" s="99"/>
@@ -5338,7 +5338,7 @@
       <c r="J88" s="7"/>
     </row>
     <row r="89" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="160"/>
+      <c r="A89" s="141"/>
       <c r="B89" s="98"/>
       <c r="C89" s="99"/>
       <c r="D89" s="99"/>
@@ -5350,7 +5350,7 @@
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="160"/>
+      <c r="A90" s="141"/>
       <c r="B90" s="98"/>
       <c r="C90" s="99"/>
       <c r="D90" s="99"/>
@@ -5362,7 +5362,7 @@
       <c r="J90" s="7"/>
     </row>
     <row r="91" spans="1:14" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="160"/>
+      <c r="A91" s="141"/>
       <c r="B91" s="98"/>
       <c r="C91" s="99"/>
       <c r="D91" s="99"/>
@@ -5374,7 +5374,7 @@
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="1:14" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="160"/>
+      <c r="A92" s="141"/>
       <c r="B92" s="98"/>
       <c r="C92" s="99"/>
       <c r="D92" s="99"/>
@@ -5386,7 +5386,7 @@
       <c r="J92" s="7"/>
     </row>
     <row r="93" spans="1:14" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="160" t="s">
+      <c r="A93" s="141" t="s">
         <v>41</v>
       </c>
       <c r="B93" s="98"/>
@@ -5400,7 +5400,7 @@
       <c r="J93" s="7"/>
     </row>
     <row r="94" spans="1:14" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="160"/>
+      <c r="A94" s="141"/>
       <c r="B94" s="98"/>
       <c r="C94" s="99"/>
       <c r="D94" s="99"/>
@@ -5412,7 +5412,7 @@
       <c r="J94" s="7"/>
     </row>
     <row r="95" spans="1:14" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="160"/>
+      <c r="A95" s="141"/>
       <c r="B95" s="98"/>
       <c r="C95" s="99"/>
       <c r="D95" s="99"/>
@@ -5424,7 +5424,7 @@
       <c r="J95" s="7"/>
     </row>
     <row r="96" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="160"/>
+      <c r="A96" s="141"/>
       <c r="B96" s="98"/>
       <c r="C96" s="99"/>
       <c r="D96" s="99"/>
@@ -5440,7 +5440,7 @@
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="160" t="s">
+      <c r="A97" s="141" t="s">
         <v>47</v>
       </c>
       <c r="B97" s="98"/>
@@ -5450,37 +5450,37 @@
       <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="161"/>
+      <c r="A98" s="145"/>
       <c r="B98" s="131"/>
       <c r="J98"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="161"/>
+      <c r="A99" s="145"/>
       <c r="B99" s="131"/>
       <c r="J99"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="161"/>
+      <c r="A100" s="145"/>
       <c r="B100" s="131"/>
       <c r="J100"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="161"/>
+      <c r="A101" s="145"/>
       <c r="B101" s="131"/>
       <c r="J101"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="161"/>
+      <c r="A102" s="145"/>
       <c r="B102" s="131"/>
       <c r="J102"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="161"/>
+      <c r="A103" s="145"/>
       <c r="B103" s="131"/>
       <c r="J103"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="161"/>
+      <c r="A104" s="145"/>
       <c r="B104" s="131"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="G105" s="78"/>
-      <c r="H105" s="143" t="s">
+      <c r="H105" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="I105" s="143"/>
+      <c r="I105" s="153"/>
       <c r="J105" s="7"/>
     </row>
     <row r="106" spans="1:14" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.4">
@@ -5515,16 +5515,16 @@
       <c r="J107" s="7"/>
     </row>
     <row r="108" spans="1:14" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="136"/>
-      <c r="B108" s="137"/>
+      <c r="A108" s="154"/>
+      <c r="B108" s="155"/>
       <c r="C108" s="41"/>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
       <c r="J108" s="7"/>
     </row>
     <row r="109" spans="1:14" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="136"/>
-      <c r="B109" s="137"/>
+      <c r="A109" s="154"/>
+      <c r="B109" s="155"/>
       <c r="I109" s="13" t="s">
         <v>100</v>
       </c>
@@ -5553,16 +5553,16 @@
         <v>6</v>
       </c>
       <c r="B112" s="83"/>
-      <c r="C112" s="148" t="str">
+      <c r="C112" s="157" t="str">
         <f>$C$8</f>
         <v>Julian Stadler, Kevin Beier</v>
       </c>
-      <c r="D112" s="148"/>
-      <c r="E112" s="148"/>
-      <c r="F112" s="148"/>
-      <c r="G112" s="148"/>
-      <c r="H112" s="148"/>
-      <c r="I112" s="148"/>
+      <c r="D112" s="157"/>
+      <c r="E112" s="157"/>
+      <c r="F112" s="157"/>
+      <c r="G112" s="157"/>
+      <c r="H112" s="157"/>
+      <c r="I112" s="157"/>
       <c r="J112" s="7"/>
     </row>
     <row r="113" spans="1:14" s="16" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5570,16 +5570,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="83"/>
-      <c r="C113" s="157" t="str">
+      <c r="C113" s="156" t="str">
         <f>$C$9</f>
         <v>CO2-Runter-App: Eine Studie zur Anpassung und Erweiterung basierend auf Nutzerbedürfnissen</v>
       </c>
-      <c r="D113" s="157"/>
-      <c r="E113" s="157"/>
-      <c r="F113" s="157"/>
-      <c r="G113" s="157"/>
-      <c r="H113" s="157"/>
-      <c r="I113" s="157"/>
+      <c r="D113" s="156"/>
+      <c r="E113" s="156"/>
+      <c r="F113" s="156"/>
+      <c r="G113" s="156"/>
+      <c r="H113" s="156"/>
+      <c r="I113" s="156"/>
       <c r="J113" s="7"/>
     </row>
     <row r="114" spans="1:14" s="16" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -5587,16 +5587,16 @@
         <v>8</v>
       </c>
       <c r="B114" s="83"/>
-      <c r="C114" s="155" t="str">
+      <c r="C114" s="142" t="str">
         <f>$C$10</f>
         <v>Dr. Oliver Rettig</v>
       </c>
-      <c r="D114" s="155"/>
-      <c r="E114" s="155"/>
-      <c r="F114" s="155"/>
-      <c r="G114" s="155"/>
-      <c r="H114" s="155"/>
-      <c r="I114" s="155"/>
+      <c r="D114" s="142"/>
+      <c r="E114" s="142"/>
+      <c r="F114" s="142"/>
+      <c r="G114" s="142"/>
+      <c r="H114" s="142"/>
+      <c r="I114" s="142"/>
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="1:14" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5614,19 +5614,19 @@
       <c r="A116" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="B116" s="165" t="s">
+      <c r="B116" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="165"/>
-      <c r="D116" s="165"/>
-      <c r="E116" s="165"/>
-      <c r="F116" s="165"/>
-      <c r="G116" s="165"/>
-      <c r="H116" s="165"/>
-      <c r="I116" s="165"/>
+      <c r="C116" s="149"/>
+      <c r="D116" s="149"/>
+      <c r="E116" s="149"/>
+      <c r="F116" s="149"/>
+      <c r="G116" s="149"/>
+      <c r="H116" s="149"/>
+      <c r="I116" s="149"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A117" s="160" t="s">
+      <c r="A117" s="141" t="s">
         <v>53</v>
       </c>
       <c r="B117" s="92"/>
@@ -5643,7 +5643,7 @@
       <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A118" s="160"/>
+      <c r="A118" s="141"/>
       <c r="B118" s="92"/>
       <c r="C118" s="93"/>
       <c r="D118" s="93"/>
@@ -5658,7 +5658,7 @@
       <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="160"/>
+      <c r="A119" s="141"/>
       <c r="B119" s="92"/>
       <c r="C119" s="93"/>
       <c r="D119" s="93"/>
@@ -5673,7 +5673,7 @@
       <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="160"/>
+      <c r="A120" s="141"/>
       <c r="B120" s="92"/>
       <c r="C120" s="93"/>
       <c r="D120" s="93"/>
@@ -5688,7 +5688,7 @@
       <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="160"/>
+      <c r="A121" s="141"/>
       <c r="B121" s="92"/>
       <c r="C121" s="93"/>
       <c r="D121" s="93"/>
@@ -5703,7 +5703,7 @@
       <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A122" s="160"/>
+      <c r="A122" s="141"/>
       <c r="B122" s="92"/>
       <c r="C122" s="93"/>
       <c r="D122" s="93"/>
@@ -5718,7 +5718,7 @@
       <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="160"/>
+      <c r="A123" s="141"/>
       <c r="B123" s="92"/>
       <c r="C123" s="93"/>
       <c r="D123" s="93"/>
@@ -5733,7 +5733,7 @@
       <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="160"/>
+      <c r="A124" s="141"/>
       <c r="B124" s="92"/>
       <c r="C124" s="93"/>
       <c r="D124" s="93"/>
@@ -5748,7 +5748,7 @@
       <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="160"/>
+      <c r="A125" s="141"/>
       <c r="B125" s="92"/>
       <c r="C125" s="93"/>
       <c r="D125" s="93"/>
@@ -5763,7 +5763,7 @@
       <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A126" s="160"/>
+      <c r="A126" s="141"/>
       <c r="B126" s="92"/>
       <c r="C126" s="93"/>
       <c r="D126" s="93"/>
@@ -5781,23 +5781,23 @@
       <c r="A127" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B127" s="173" t="s">
+      <c r="B127" s="143" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="169"/>
-      <c r="D127" s="169"/>
-      <c r="E127" s="169"/>
-      <c r="F127" s="169"/>
-      <c r="G127" s="169"/>
-      <c r="H127" s="169"/>
-      <c r="I127" s="169"/>
+      <c r="C127" s="144"/>
+      <c r="D127" s="144"/>
+      <c r="E127" s="144"/>
+      <c r="F127" s="144"/>
+      <c r="G127" s="144"/>
+      <c r="H127" s="144"/>
+      <c r="I127" s="144"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="162" t="s">
+      <c r="A128" s="146" t="s">
         <v>61</v>
       </c>
       <c r="B128" s="92"/>
@@ -5814,7 +5814,7 @@
       <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="163"/>
+      <c r="A129" s="147"/>
       <c r="B129" s="92"/>
       <c r="C129" s="93"/>
       <c r="D129" s="93"/>
@@ -5829,7 +5829,7 @@
       <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="163"/>
+      <c r="A130" s="147"/>
       <c r="B130" s="92"/>
       <c r="C130" s="93"/>
       <c r="D130" s="93"/>
@@ -5844,7 +5844,7 @@
       <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A131" s="169"/>
+      <c r="A131" s="144"/>
       <c r="B131" s="96"/>
       <c r="C131" s="97"/>
       <c r="D131" s="97"/>
@@ -5859,7 +5859,7 @@
       <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A132" s="170"/>
+      <c r="A132" s="151"/>
       <c r="B132" s="96"/>
       <c r="C132" s="97"/>
       <c r="D132" s="97"/>
@@ -5874,7 +5874,7 @@
       <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A133" s="160" t="s">
+      <c r="A133" s="141" t="s">
         <v>67</v>
       </c>
       <c r="B133" s="92"/>
@@ -5891,7 +5891,7 @@
       <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A134" s="160"/>
+      <c r="A134" s="141"/>
       <c r="B134" s="92"/>
       <c r="C134" s="93"/>
       <c r="D134" s="93"/>
@@ -5906,7 +5906,7 @@
       <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A135" s="160"/>
+      <c r="A135" s="141"/>
       <c r="B135" s="92"/>
       <c r="C135" s="93"/>
       <c r="D135" s="93"/>
@@ -5921,7 +5921,7 @@
       <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="171"/>
+      <c r="A136" s="152"/>
       <c r="B136" s="96"/>
       <c r="C136" s="97"/>
       <c r="D136" s="97"/>
@@ -5936,7 +5936,7 @@
       <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="171"/>
+      <c r="A137" s="152"/>
       <c r="B137" s="96"/>
       <c r="C137" s="97"/>
       <c r="D137" s="97"/>
@@ -5951,7 +5951,7 @@
       <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="160" t="s">
+      <c r="A138" s="141" t="s">
         <v>73</v>
       </c>
       <c r="B138" s="92"/>
@@ -5968,7 +5968,7 @@
       <c r="N138" s="1"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="160"/>
+      <c r="A139" s="141"/>
       <c r="B139" s="92"/>
       <c r="C139" s="93"/>
       <c r="D139" s="93"/>
@@ -5983,7 +5983,7 @@
       <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="160"/>
+      <c r="A140" s="141"/>
       <c r="B140" s="92"/>
       <c r="C140" s="93"/>
       <c r="D140" s="93"/>
@@ -5998,7 +5998,7 @@
       <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A141" s="171"/>
+      <c r="A141" s="152"/>
       <c r="B141" s="96"/>
       <c r="C141" s="97"/>
       <c r="D141" s="97"/>
@@ -6013,7 +6013,7 @@
       <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A142" s="171"/>
+      <c r="A142" s="152"/>
       <c r="B142" s="96"/>
       <c r="C142" s="97"/>
       <c r="D142" s="97"/>
@@ -6028,7 +6028,7 @@
       <c r="N142" s="1"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="171"/>
+      <c r="A143" s="152"/>
       <c r="B143" s="96"/>
       <c r="C143" s="97"/>
       <c r="D143" s="97"/>
@@ -6043,7 +6043,7 @@
       <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="162" t="s">
+      <c r="A144" s="146" t="s">
         <v>79</v>
       </c>
       <c r="B144" s="92"/>
@@ -6060,7 +6060,7 @@
       <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="163"/>
+      <c r="A145" s="147"/>
       <c r="B145" s="92"/>
       <c r="C145" s="93"/>
       <c r="D145" s="93"/>
@@ -6075,7 +6075,7 @@
       <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="163"/>
+      <c r="A146" s="147"/>
       <c r="B146" s="92"/>
       <c r="C146" s="93"/>
       <c r="D146" s="93"/>
@@ -6090,7 +6090,7 @@
       <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="169"/>
+      <c r="A147" s="144"/>
       <c r="B147" s="96"/>
       <c r="C147" s="97"/>
       <c r="D147" s="97"/>
@@ -6105,7 +6105,7 @@
       <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="169"/>
+      <c r="A148" s="144"/>
       <c r="B148" s="96"/>
       <c r="C148" s="97"/>
       <c r="D148" s="97"/>
@@ -6120,7 +6120,7 @@
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A149" s="170"/>
+      <c r="A149" s="151"/>
       <c r="B149" s="96"/>
       <c r="C149" s="97"/>
       <c r="D149" s="97"/>
@@ -6135,7 +6135,7 @@
       <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A150" s="162" t="s">
+      <c r="A150" s="146" t="s">
         <v>85</v>
       </c>
       <c r="B150" s="92"/>
@@ -6152,7 +6152,7 @@
       <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A151" s="163"/>
+      <c r="A151" s="147"/>
       <c r="B151" s="92"/>
       <c r="C151" s="93"/>
       <c r="D151" s="93"/>
@@ -6167,7 +6167,7 @@
       <c r="N151" s="1"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="163"/>
+      <c r="A152" s="147"/>
       <c r="B152" s="92"/>
       <c r="C152" s="93"/>
       <c r="D152" s="93"/>
@@ -6182,7 +6182,7 @@
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="169"/>
+      <c r="A153" s="144"/>
       <c r="B153" s="96"/>
       <c r="C153" s="97"/>
       <c r="D153" s="97"/>
@@ -6197,7 +6197,7 @@
       <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="170"/>
+      <c r="A154" s="151"/>
       <c r="B154" s="96"/>
       <c r="C154" s="97"/>
       <c r="D154" s="97"/>
@@ -6212,182 +6212,182 @@
       <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="162" t="s">
+      <c r="A155" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="B155" s="158"/>
-      <c r="C155" s="159"/>
-      <c r="D155" s="159"/>
-      <c r="E155" s="159"/>
-      <c r="F155" s="159"/>
-      <c r="G155" s="159"/>
-      <c r="H155" s="159"/>
-      <c r="I155" s="159"/>
+      <c r="B155" s="136"/>
+      <c r="C155" s="137"/>
+      <c r="D155" s="137"/>
+      <c r="E155" s="137"/>
+      <c r="F155" s="137"/>
+      <c r="G155" s="137"/>
+      <c r="H155" s="137"/>
+      <c r="I155" s="137"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="163"/>
-      <c r="B156" s="158"/>
-      <c r="C156" s="159"/>
-      <c r="D156" s="159"/>
-      <c r="E156" s="159"/>
-      <c r="F156" s="159"/>
-      <c r="G156" s="159"/>
-      <c r="H156" s="159"/>
-      <c r="I156" s="159"/>
+      <c r="A156" s="147"/>
+      <c r="B156" s="136"/>
+      <c r="C156" s="137"/>
+      <c r="D156" s="137"/>
+      <c r="E156" s="137"/>
+      <c r="F156" s="137"/>
+      <c r="G156" s="137"/>
+      <c r="H156" s="137"/>
+      <c r="I156" s="137"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="163"/>
-      <c r="B157" s="158"/>
-      <c r="C157" s="159"/>
-      <c r="D157" s="159"/>
-      <c r="E157" s="159"/>
-      <c r="F157" s="159"/>
-      <c r="G157" s="159"/>
-      <c r="H157" s="159"/>
-      <c r="I157" s="159"/>
+      <c r="A157" s="147"/>
+      <c r="B157" s="136"/>
+      <c r="C157" s="137"/>
+      <c r="D157" s="137"/>
+      <c r="E157" s="137"/>
+      <c r="F157" s="137"/>
+      <c r="G157" s="137"/>
+      <c r="H157" s="137"/>
+      <c r="I157" s="137"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="163"/>
-      <c r="B158" s="158"/>
-      <c r="C158" s="159"/>
-      <c r="D158" s="159"/>
-      <c r="E158" s="159"/>
-      <c r="F158" s="159"/>
-      <c r="G158" s="159"/>
-      <c r="H158" s="159"/>
-      <c r="I158" s="159"/>
+      <c r="A158" s="147"/>
+      <c r="B158" s="136"/>
+      <c r="C158" s="137"/>
+      <c r="D158" s="137"/>
+      <c r="E158" s="137"/>
+      <c r="F158" s="137"/>
+      <c r="G158" s="137"/>
+      <c r="H158" s="137"/>
+      <c r="I158" s="137"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="163"/>
-      <c r="B159" s="158"/>
-      <c r="C159" s="159"/>
-      <c r="D159" s="159"/>
-      <c r="E159" s="159"/>
-      <c r="F159" s="159"/>
-      <c r="G159" s="159"/>
-      <c r="H159" s="159"/>
-      <c r="I159" s="159"/>
+      <c r="A159" s="147"/>
+      <c r="B159" s="136"/>
+      <c r="C159" s="137"/>
+      <c r="D159" s="137"/>
+      <c r="E159" s="137"/>
+      <c r="F159" s="137"/>
+      <c r="G159" s="137"/>
+      <c r="H159" s="137"/>
+      <c r="I159" s="137"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="163"/>
-      <c r="B160" s="158"/>
-      <c r="C160" s="159"/>
-      <c r="D160" s="159"/>
-      <c r="E160" s="159"/>
-      <c r="F160" s="159"/>
-      <c r="G160" s="159"/>
-      <c r="H160" s="159"/>
-      <c r="I160" s="159"/>
+      <c r="A160" s="147"/>
+      <c r="B160" s="136"/>
+      <c r="C160" s="137"/>
+      <c r="D160" s="137"/>
+      <c r="E160" s="137"/>
+      <c r="F160" s="137"/>
+      <c r="G160" s="137"/>
+      <c r="H160" s="137"/>
+      <c r="I160" s="137"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A161" s="163"/>
-      <c r="B161" s="158"/>
-      <c r="C161" s="159"/>
-      <c r="D161" s="159"/>
-      <c r="E161" s="159"/>
-      <c r="F161" s="159"/>
-      <c r="G161" s="159"/>
-      <c r="H161" s="159"/>
-      <c r="I161" s="159"/>
+      <c r="A161" s="147"/>
+      <c r="B161" s="136"/>
+      <c r="C161" s="137"/>
+      <c r="D161" s="137"/>
+      <c r="E161" s="137"/>
+      <c r="F161" s="137"/>
+      <c r="G161" s="137"/>
+      <c r="H161" s="137"/>
+      <c r="I161" s="137"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="163"/>
-      <c r="B162" s="158"/>
-      <c r="C162" s="159"/>
-      <c r="D162" s="159"/>
-      <c r="E162" s="159"/>
-      <c r="F162" s="159"/>
-      <c r="G162" s="159"/>
-      <c r="H162" s="159"/>
-      <c r="I162" s="159"/>
+      <c r="A162" s="147"/>
+      <c r="B162" s="136"/>
+      <c r="C162" s="137"/>
+      <c r="D162" s="137"/>
+      <c r="E162" s="137"/>
+      <c r="F162" s="137"/>
+      <c r="G162" s="137"/>
+      <c r="H162" s="137"/>
+      <c r="I162" s="137"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="163"/>
-      <c r="B163" s="158"/>
-      <c r="C163" s="159"/>
-      <c r="D163" s="159"/>
-      <c r="E163" s="159"/>
-      <c r="F163" s="159"/>
-      <c r="G163" s="159"/>
-      <c r="H163" s="159"/>
-      <c r="I163" s="159"/>
+      <c r="A163" s="147"/>
+      <c r="B163" s="136"/>
+      <c r="C163" s="137"/>
+      <c r="D163" s="137"/>
+      <c r="E163" s="137"/>
+      <c r="F163" s="137"/>
+      <c r="G163" s="137"/>
+      <c r="H163" s="137"/>
+      <c r="I163" s="137"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="163"/>
-      <c r="B164" s="158"/>
-      <c r="C164" s="159"/>
-      <c r="D164" s="159"/>
-      <c r="E164" s="159"/>
-      <c r="F164" s="159"/>
-      <c r="G164" s="159"/>
-      <c r="H164" s="159"/>
-      <c r="I164" s="159"/>
+      <c r="A164" s="147"/>
+      <c r="B164" s="136"/>
+      <c r="C164" s="137"/>
+      <c r="D164" s="137"/>
+      <c r="E164" s="137"/>
+      <c r="F164" s="137"/>
+      <c r="G164" s="137"/>
+      <c r="H164" s="137"/>
+      <c r="I164" s="137"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="163"/>
-      <c r="B165" s="158"/>
-      <c r="C165" s="159"/>
-      <c r="D165" s="159"/>
-      <c r="E165" s="159"/>
-      <c r="F165" s="159"/>
-      <c r="G165" s="159"/>
-      <c r="H165" s="159"/>
-      <c r="I165" s="159"/>
+      <c r="A165" s="147"/>
+      <c r="B165" s="136"/>
+      <c r="C165" s="137"/>
+      <c r="D165" s="137"/>
+      <c r="E165" s="137"/>
+      <c r="F165" s="137"/>
+      <c r="G165" s="137"/>
+      <c r="H165" s="137"/>
+      <c r="I165" s="137"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A166" s="164"/>
-      <c r="B166" s="158"/>
-      <c r="C166" s="159"/>
-      <c r="D166" s="159"/>
-      <c r="E166" s="159"/>
-      <c r="F166" s="159"/>
-      <c r="G166" s="159"/>
-      <c r="H166" s="159"/>
-      <c r="I166" s="159"/>
+      <c r="A166" s="148"/>
+      <c r="B166" s="136"/>
+      <c r="C166" s="137"/>
+      <c r="D166" s="137"/>
+      <c r="E166" s="137"/>
+      <c r="F166" s="137"/>
+      <c r="G166" s="137"/>
+      <c r="H166" s="137"/>
+      <c r="I166" s="137"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -13781,6 +13781,43 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="53">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="B159:I159"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="A155:A166"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B116:I116"/>
+    <mergeCell ref="A70:A82"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A144:A149"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="A133:A137"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="A117:A126"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C113:I113"/>
     <mergeCell ref="B164:I164"/>
     <mergeCell ref="B165:I165"/>
     <mergeCell ref="B166:I166"/>
@@ -13797,43 +13834,6 @@
     <mergeCell ref="B156:I156"/>
     <mergeCell ref="B157:I157"/>
     <mergeCell ref="B158:I158"/>
-    <mergeCell ref="B159:I159"/>
-    <mergeCell ref="A97:A104"/>
-    <mergeCell ref="A155:A166"/>
-    <mergeCell ref="B48:I48"/>
-    <mergeCell ref="B116:I116"/>
-    <mergeCell ref="A70:A82"/>
-    <mergeCell ref="A150:A154"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="A138:A143"/>
-    <mergeCell ref="A133:A137"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="A117:A126"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C113:I113"/>
-    <mergeCell ref="C112:I112"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C10:I10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E13:F13">
